--- a/code/Authors_list.xlsx
+++ b/code/Authors_list.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrich\Documents\Sem2\Data_mining\coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D137EF0F-07D3-415C-AC11-FFCB7FF3794A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6360" xr2:uid="{292A79B7-EA61-49AE-A4DF-67678731AAD3}"/>
   </bookViews>
@@ -234,9 +235,6 @@
     <t>GIBBON'S HISTORY OF THE DECLINE AND FALL OF THE ROMAN EMPIRE VOL. Hr</t>
   </si>
   <si>
-    <t>THE *. HISTORICAL ANNALS or COBWBXiXUS TACITUS</t>
-  </si>
-  <si>
     <t>PHILADELPHIA:
 PUBLISHED BY D. NEALL</t>
   </si>
@@ -324,6 +322,9 @@
   </si>
   <si>
     <t>Lackington Allen &amp; Co.; Longman, Hurst, Rees &amp;. Orme; Vcrnor, Hood &amp; Sharpc; Cuthell &amp; Martin ; James Nunn, and Samuel Bagster, LONDON</t>
+  </si>
+  <si>
+    <t>THE HISTORICAL ANNALS or COBWBXiXUS TACITUS</t>
   </si>
 </sst>
 </file>
@@ -707,7 +708,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,7 +920,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>46</v>
@@ -996,10 +997,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -1008,7 +1009,7 @@
         <v>1829</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1019,16 +1020,16 @@
         <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E16" s="1">
         <v>1813</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1039,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>47</v>
@@ -1048,7 +1049,7 @@
         <v>1869</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1059,7 +1060,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -1068,7 +1069,7 @@
         <v>1805</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1079,7 +1080,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>46</v>
@@ -1088,7 +1089,7 @@
         <v>1834</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1099,7 +1100,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>47</v>
@@ -1108,7 +1109,7 @@
         <v>1821</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1116,19 +1117,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E21" s="1">
         <v>1828</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1139,7 +1140,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
@@ -1148,7 +1149,7 @@
         <v>1821</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1156,19 +1157,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1">
         <v>1864</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="184.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1179,7 +1180,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>38</v>
@@ -1188,7 +1189,7 @@
         <v>1825</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1199,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>47</v>
@@ -1208,7 +1209,7 @@
         <v>1806</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
